--- a/SoapUI_API_Library/1318 정적분석 결과.xlsx
+++ b/SoapUI_API_Library/1318 정적분석 결과.xlsx
@@ -1709,8 +1709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27:D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
